--- a/JAVA18 HPHAM DATABASE DESIGN.xlsx
+++ b/JAVA18 HPHAM DATABASE DESIGN.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKIT-JAVA\2.JAVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKIT-JAVA\3.DATABASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C6438-DD26-4779-A302-2143928C662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD302C02-BEBE-4E01-8C23-7E823FFB8775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B1 Mô hình quan niệm" sheetId="2" r:id="rId1"/>
-    <sheet name="B1 Mô hình logic" sheetId="1" r:id="rId2"/>
+    <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
+    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
+    <sheet name="B3. Mô hình quan hệ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -109,8 +110,92 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{D8722EFE-1A54-4E92-9F4D-43C21362F734}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Đã đặt hàng, đang đóng gói, đang giao, giao thành công, giao thất bại.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{0F2A0AC1-340D-4462-9EF1-367BCE9D8CA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+varchar || char
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{E9E38842-090C-4CDD-B6CA-915076F7BBD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Entity
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="77">
   <si>
     <t>Inheritance &amp; Composition</t>
   </si>
@@ -329,6 +414,18 @@
   </si>
   <si>
     <t>.png, b.png, a.png</t>
+  </si>
+  <si>
+    <t>1. Xác định các bảng</t>
+  </si>
+  <si>
+    <t>2. Xác định lại các thuộc tính đơn của từng bảng</t>
+  </si>
+  <si>
+    <t>3. Xác định khóa chính</t>
+  </si>
+  <si>
+    <t>4. Xử lý các mối quan hệ - Khóa ngoại (11 1n) , bảng mới (nn)</t>
   </si>
 </sst>
 </file>
@@ -451,19 +548,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,19 +587,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +618,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,11 +882,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF05415-E0EB-4FA5-A44C-27694A540C7D}">
   <dimension ref="B1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,26 +1273,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,11 +1301,11 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,9 +1314,9 @@
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J6" s="2" t="s">
@@ -875,280 +1330,280 @@
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="5"/>
-      <c r="P11" s="11" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="3"/>
+      <c r="P11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3"/>
       <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="9" t="s">
         <v>71</v>
       </c>
       <c r="R14" s="2">
@@ -1163,194 +1618,194 @@
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="23" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="10"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1364,12 +1819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I26"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B9C26-C7AF-4105-857E-D4706482B1F6}">
+  <dimension ref="B1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,29 +1838,35 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1413,12 +1874,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1426,297 +1887,508 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="K7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="J8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="J9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="2">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2">
+        <v>22</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1726,5 +2398,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>